--- a/biology/Zoologie/Cyrtodactylus_kimberleyensis/Cyrtodactylus_kimberleyensis.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_kimberleyensis/Cyrtodactylus_kimberleyensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus kimberleyensis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus kimberleyensis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île d’East Montalivet dans l'archipel des îles Montalivet à 30 km de la côte nord du Kimberley, en Australie occidentale[1]. 
-Cyrtodactylus kimberleyensis est la première espèce du genre Cyrtodactylus à être découverte en Australie, en dehors du nord du Queensland[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île d’East Montalivet dans l'archipel des îles Montalivet à 30 km de la côte nord du Kimberley, en Australie occidentale. 
+Cyrtodactylus kimberleyensis est la première espèce du genre Cyrtodactylus à être découverte en Australie, en dehors du nord du Queensland.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Cyrtodactylus kimberleyensis[2], seul spécimen connu, est une femelle gravide qui mesure 98,4 mm dont 53,3 mm pour la queue, et dont la masse est d'environ 2,5 g.
-Ce spécimen a été découvert par Robert Browne-Cooper en 2007 et décrit dans la revue Zootaxa par Aaron Bauer et Paul Doughty en 2012[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Cyrtodactylus kimberleyensis, seul spécimen connu, est une femelle gravide qui mesure 98,4 mm dont 53,3 mm pour la queue, et dont la masse est d'environ 2,5 g.
+Ce spécimen a été découvert par Robert Browne-Cooper en 2007 et décrit dans la revue Zootaxa par Aaron Bauer et Paul Doughty en 2012.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de kimberley et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aaron &amp; Doughty, 2012 : A new bent-toed gecko (Squamata: Gekkonidae: Cyrtodactylus) from the Kimberley region, Western Australia. Zootaxa, n. 3187, p. 32–42 (texte intégral).</t>
         </is>
